--- a/Models_results.xlsx
+++ b/Models_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ipcbcampus-my.sharepoint.com/personal/rcaseiro_ipcbcampus_pt/Documents/002_Learning/001_Pos_Graduacao/Ciclo 5 - Projeto Final/ProjetoFinal-PosGraduacaoEngenhariaFinanceira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{F9D45894-8083-4354-9A01-E41565AE51F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62C45F56-4889-4FE5-9051-F0719A55E145}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{F9D45894-8083-4354-9A01-E41565AE51F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3235AEF6-FC12-4BD3-99BA-3EB4CEAF4996}"/>
   <bookViews>
-    <workbookView xWindow="12510" yWindow="0" windowWidth="16395" windowHeight="15585" xr2:uid="{8F2EB496-308B-41CF-B592-4997C4F10518}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F2EB496-308B-41CF-B592-4997C4F10518}"/>
   </bookViews>
   <sheets>
     <sheet name="Ciclo3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Variables</t>
   </si>
@@ -83,12 +83,6 @@
     <t>model3c</t>
   </si>
   <si>
-    <t>BalanceSheet_global</t>
-  </si>
-  <si>
-    <t>BalanceSheet_usa</t>
-  </si>
-  <si>
     <t>BTC_USD</t>
   </si>
   <si>
@@ -98,45 +92,21 @@
     <t>USD_OnChain_Volume</t>
   </si>
   <si>
-    <t>GDP_usa</t>
-  </si>
-  <si>
     <t>HashRate</t>
   </si>
   <si>
     <t>M2_Liquidity</t>
   </si>
   <si>
-    <t>EURUSD=X</t>
-  </si>
-  <si>
-    <t>DX-Y.NYB</t>
-  </si>
-  <si>
     <t>SPY</t>
   </si>
   <si>
     <t>QQQ</t>
   </si>
   <si>
-    <t>IWDA.AS</t>
-  </si>
-  <si>
-    <t>GLD</t>
-  </si>
-  <si>
     <t>TLT</t>
   </si>
   <si>
-    <t>^TNX</t>
-  </si>
-  <si>
-    <t>^VIX</t>
-  </si>
-  <si>
-    <t>CL=F</t>
-  </si>
-  <si>
     <t>Miners_Revenue_USD</t>
   </si>
   <si>
@@ -174,6 +144,33 @@
   </si>
   <si>
     <t>&lt;0.01</t>
+  </si>
+  <si>
+    <t>10YR_USA</t>
+  </si>
+  <si>
+    <t>OIL_USD</t>
+  </si>
+  <si>
+    <t>Volatility_Index</t>
+  </si>
+  <si>
+    <t>GDP_USA</t>
+  </si>
+  <si>
+    <t>GOLD_USD</t>
+  </si>
+  <si>
+    <t>IWDA</t>
+  </si>
+  <si>
+    <t>Dollar_Index</t>
+  </si>
+  <si>
+    <t>BalanceSheet_USA</t>
+  </si>
+  <si>
+    <t>BalanceSheet_Global</t>
   </si>
 </sst>
 </file>
@@ -239,6 +236,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78241C2D-6B5A-41D6-9798-9B6608F477B3}">
   <dimension ref="B2:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,181 +573,181 @@
     <col min="9" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F26" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G26" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H26" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I26" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J26" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K26" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L26" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M26" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -764,21 +765,24 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B27">
+    <sortCondition ref="B2:B27"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
